--- a/biology/Zoologie/Blaesodactylus/Blaesodactylus.xlsx
+++ b/biology/Zoologie/Blaesodactylus/Blaesodactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blaesodactylus est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blaesodactylus est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les six espèces de ce genre sont endémiques de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les six espèces de ce genre sont endémiques de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (03 mars 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (03 mars 2017) :
 Blaesodactylus ambonihazo Bauer, Glaw, Gehring &amp; Vences, 2011
 Blaesodactylus antongilensis (Böhme &amp; Meier, 1980)
 Blaesodactylus boivini (Duméril, 1856)
@@ -578,7 +594,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre était précédemment considéré comme un synonyme d'Homopholis.
 </t>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1893 : Katalog der Reptilien-Sammlung im Museum der Senckenbergischen Naturforschenden Gesellschaft in Frankfurt am Main. I. Teil (Rhynchocephalen, Schildkröten, Krokodile, Eidechsen, Chamäleons). Gebrüder Knauer, Frankfurt am Main, p. 1-140 (texte intégral).</t>
         </is>
